--- a/biology/Médecine/Dorothea_Orem/Dorothea_Orem.xlsx
+++ b/biology/Médecine/Dorothea_Orem/Dorothea_Orem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothea Elizabeth Orem (15 juin 1914 - 22 juin 2007), née à Baltimore, Maryland, était une théoricienne des soins infirmiers et créatrice de la théorie des soins infirmiers auto-administrés (self-care deficit nursing theory), également connue sous le nom de modèle Orem de soins infirmiers.
 </t>
@@ -511,10 +523,12 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orem a obtenu un diplôme d'infirmière de la Providence Hospital School of Nursing de Washington, DC. Elle a également fréquenté l'Université catholique d'Amérique, où elle a obtenu un Bachelor ès sciences en éducation infirmière en 1939 et une Maîtrise ès sciences en éducation infirmière en 1945.
-Orem a reçu des doctorats honorifiques de l'Université de Georgetown, de l'Incarnate Word College et de l'Illinois Wesleyan University[1].
+Orem a reçu des doctorats honorifiques de l'Université de Georgetown, de l'Incarnate Word College et de l'Illinois Wesleyan University.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Théorie des soins infirmiers auto-administrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La théorie des soins infirmiers d'Orem énonce les soins auto-administrés comme un besoin humain, et les infirmières conçoivent des interventions pour fournir ou gérer des actions d'autosoins pour que les personnes retrouvent ou maintiennent leur santé[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La théorie des soins infirmiers d'Orem énonce les soins auto-administrés comme un besoin humain, et les infirmières conçoivent des interventions pour fournir ou gérer des actions d'autosoins pour que les personnes retrouvent ou maintiennent leur santé.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Diagnostic infirmier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orem était membre du groupe de théoriciennes infirmières qui ont présenté Patterns of Unitary Man (Humans), le cadre initial pour le diagnostic infirmier, à la North American Nursing Diagnosis Association en 1982[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orem était membre du groupe de théoriciennes infirmières qui ont présenté Patterns of Unitary Man (Humans), le cadre initial pour le diagnostic infirmier, à la North American Nursing Diagnosis Association en 1982.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1980 : Alumni Achievement Award for Nursing Theory, Catholic University of America[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1980 : Alumni Achievement Award for Nursing Theory, Catholic University of America.</t>
         </is>
       </c>
     </row>
@@ -635,9 +655,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orem est décédée le 22 juin 2007 à Savannah, en Géorgie, où elle avait passé les 25 dernières années de sa vie en tant que consultante et auteur. Elle avait 92 ans[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orem est décédée le 22 juin 2007 à Savannah, en Géorgie, où elle avait passé les 25 dernières années de sa vie en tant que consultante et auteur. Elle avait 92 ans.
 </t>
         </is>
       </c>
